--- a/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560337/JX560337_mutations.xlsx
+++ b/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560337/JX560337_mutations.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45438.89300884513</v>
+        <v>45441.83326920484</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['1413_1414del']</t>
+          <t>['1455_1500insattgactacgtctgcagcgacatcgctgctcagatgatgtcgtgc', '1398_1458del', '1347_1464insacgtcgatagccatttcttctgagcataggtagacaggccactgctagtcgtgcactctacttctaatacaccggactgatcttgtcgagcaggccttcgtctgctcaagatgcaga', '1368_1427del', '1521_1548del']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45438.89300887984</v>
+        <v>45441.83326922799</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['222_224insct']</t>
+          <t>['201_328del', '170_223del', '208_349del', '200_332insagggctatatagtactaagaggcgggttggacgcgcgacaaatcaccataaagacctctaactgacaggtcggtgcttccgtatcaataacgcgcgccatagctcaagtgcagtggaactttgttattttgg', '252_306del']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45438.89300890299</v>
+        <v>45441.83326925113</v>
       </c>
     </row>
     <row r="5">
@@ -641,7 +641,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['3786_3791insaggcc']</t>
+          <t>['3788_3873del', '3794_3922del', '3814_3837insgtaaactattccgtctgtatcct', '3830_3969insagagggggtggaatactatccggcggctagtcgtaactaacggcgcctatgtccggattctccctcgtagattgcaatattcaccacgtgcttgactcgacggataacatgtagtagcttgggcagtgcatccgctcca', '3779_3829insctgagcggatcgggccgtcatttagacacgacttagcaaaaatctagttc']</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -654,16 +654,16 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45438.89300892615</v>
+        <v>45441.83326928628</v>
       </c>
     </row>
     <row r="6">
@@ -674,12 +674,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['1467c&gt;a']</t>
+          <t>['1398_1495del', '1314_1374del', '1419_1544insttcgcctgcaaggagatcgggtacgctggtatcggtgtgacattagaggccaggcaatattttaccgcccaataggctacatgatcataaatttgcaactagaggcgatgggaaatccctgctac', '1366_1406insagatattccaatcggattattcaatgtattcttatcgctg', '1505_1563del']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['200_204instaac']</t>
+          <t>['224_366del', '250_381insctaagattcgttagacaaatccgagggcactcggttctattaattagatctggggctcattcaagcccaagcgggccccgaggaggctggtagtgaatggcttggtcccaaagcacctacgcaagcttgag', '205_254del', '156_186insgcacaacacagcgagcccgagtatctttat', '244_352del']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45438.89300894929</v>
+        <v>45441.83326930948</v>
       </c>
     </row>
     <row r="7">
@@ -717,7 +717,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['1478c&gt;g']</t>
+          <t>['1501_1632instttatctttttaggcatttattctcccaagacgtcagtatgggtatatagcggtgcaccgcgattcaattcttcacatgggaacgttgggtaccattaaaccagcacccctatgataattgagtctcatac', '1506_1588inscccagtcactgtaggcaatacccctgtatggagacgagccgctggacactcagacactggtgggctgtaagattgcgtcagt', '1306_1370insctgtggacaggcttgacgccacatgcatacgaggttaataggagcgtgtttccggagtattgta', '1324_1420instagcgcgacgcagtaaggataactaaagaggataaatctgagggattttacatctatacgctagttgcaacatgcaccactagtgaggacaggtat', '1496_1542insctatggaacggcatgcgcatcccggactcacgcactccggacggtc']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['3839a&gt;t']</t>
+          <t>['3784_3798del', '3808_3877insgtaaacagacctccacatacgttgtacaatcagtctttgactaactggtttatgatacgtgctggctta', '3840_3869del', '3831_3872del', '3861_3952insaaaagttggttgcttggggttgcttggcctccctacatgcgatcctcccgatatggggtccacggtccaggttctgtgtcggcgatctagg']</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -740,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45438.89300897822</v>
+        <v>45441.83326933847</v>
       </c>
     </row>
     <row r="8">
@@ -765,12 +765,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['152_155del']</t>
+          <t>['221_292inscactcgcatgtggttgccgcgcaacctcccgcgcaccctgcctggaacatatcttgggagtcctaacgttg', '183_203del', '254_293del', '226_357insatctccttgttgggtaggtatactcaccgtgacgccggcaattaccgttcgcatctctgttgctatgagtgtcgaagaaccacgttacaaggaataaggcagtaattggggatcgccctttcatagcgatt', '153_291del']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['3820_3824del']</t>
+          <t>['3805_3836insgccctgcggaatagttcctatgactgtagcc', '3814_3883insgtgcactgtccttattatcatggtttgctattgtatccgggtaatcatcaccagcttaaagattgtgaa', '3878_3937del', '3874_4021insttagttgtgtggctattccaaagaactaaacggtgctggtgttatgctgcggccaacccatgtctcctgtggtcaaagcacgcaccatagctcccctttaacacacgttctttgagggtgatggggcgggacgctacctatattctc', '3848_3971instctccacgagcagtctaggtaagaccagcatgcacgccgttaattggtcatcggcaaccaacggcctatcccgatcagcgcatcggtgggtatcgccttgtctgcgggagcatatctgtattg']</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -783,16 +783,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45438.89300899558</v>
+        <v>45441.83326936162</v>
       </c>
     </row>
     <row r="9">
@@ -803,17 +803,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['1471a&gt;t']</t>
+          <t>['1314_1393del', '1367_1379instattctaagcaa', '1434_1554insccgtctctttggcagcgttatggctgtttcgagaaagcgttcgacatttcgggaaataggcttctaacccatacgactgccaggtaatttatactacacaaggaatgttctcagtgaact', '1399_1521insgctaattgaccttggaaatacacaccgcgtgagagtgcgcgaacctcagatagttcatttcggcattaattgaaccgactgccgttaggacaatataaatggctctctcaccagcttcgttg', '1424_1542insattgtgcaacatgagaggcgggttctagaagactcagagcgacacaagaaggccaaagaactaggcaatcattaacgtatcaacgcgagatcaacagttacaacctcacatgagttac']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['168_169del']</t>
+          <t>['205_237insctatggcttcccacccagttcttgtggcttgc', '224_284instaacacgtataacctaaaagcttaaactttggtcccaatagggactacacttgttcttcc', '199_342del', '228_360del', '240_262del']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['3796c&gt;g']</t>
+          <t>['3832_3849insggaccaatatccaacag', '3870_4006inscgtagaacttccagtggcgacagcgcatatgagtactttgaatgtagcacatacaatgcccacatcaagttagacacaaggcattagatcagaccgaatgtgtacgaaccaatggtttcttggatgggactgtaag', '3869_4016del', '3787_3798instcgtcatcctt', '3828_3960del']</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -826,16 +826,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45438.89300901874</v>
+        <v>45441.83326937898</v>
       </c>
     </row>
   </sheetData>
